--- a/similarities/split_global/harmonic_similarity_timestamps_158.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_158.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.020000', '0:00:13.980000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=7.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:18.013446', '0:00:21.856349')]</t>
+          <t>('0:00:01.640000', '0:00:10.360000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:11.080000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj/A', 'D:min/A', 'A:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:19.513843', '0:00:26.514661')]</t>
+          <t>('0:00:37.700000', '0:00:56.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:13.500000')]</t>
+          <t>('0:00:00.780000', '0:00:09.740000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=19.513843']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=37.7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:13.660000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:00.300000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:12.580000')]</t>
+          <t>('0:00:28.020000', '0:00:30.100000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.408834', '0:00:16.560579')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_2</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'C:min7', 'Bb:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:7', 'B:7', 'F#:min7', 'E:7']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:39.110000', '0:00:43.820000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.220000', '0:00:08.970000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-2#t=39.11']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=3.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:01.014823', '0:00:13.657911')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:57.400000', '0:01:05.220000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=57.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'A:7/3', 'D']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:21.020000', '0:00:26.800000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:14.541510', '0:00:23.411533')]</t>
+          <t>('0:00:09.140000', '0:00:16.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232'), ('0:00:00.421247', '0:00:03.083177')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C', 'F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:55.680000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:01:04.514625', '0:01:32.970680')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:25.390000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=25.39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000'), ('0:00:24.180000', '0:00:30.020000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'G', 'C']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G'], ['F:maj/A', 'C:maj/G', 'F:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.943242', '0:01:05.045464'), ('0:00:57.824058', '0:01:06.833401')]</t>
+          <t>('0:00:01.300000', '0:00:02.670000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:29.960000', '0:00:31.680000'), ('0:00:29.160000', '0:00:31.340000')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=57.824058']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=29.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=29.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
